--- a/Data_Relation.xlsx
+++ b/Data_Relation.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E41E335-3071-4023-84F0-CD1EDB12F254}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197FB29B-BD2D-4512-9346-0A2ABA0A37EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様表" sheetId="1" r:id="rId1"/>
     <sheet name="帳票" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
   <si>
     <t>tweet_id</t>
     <phoneticPr fontId="1"/>
@@ -174,6 +175,251 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>知りたいこと</t>
+  </si>
+  <si>
+    <t>仕様表</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元データ</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Company_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社名</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイート文の平均文字数</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイート文量の中央値</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント数の平均</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リツイート数の平均</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねの数の平均</t>
+    <rPh sb="4" eb="5">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント数の最大値</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リツイート数の最大値</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねの数の最大値</t>
+    <rPh sb="4" eb="5">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tweet.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tweet_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retweet_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>like_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>count_bodytext</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ticker_symbol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tweet_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Company.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Company_Tweet.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
@@ -181,10 +427,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>知りたいこと</t>
-  </si>
-  <si>
-    <t>・各会社に対するツイート数、どの企業がもっともツイートされているのか</t>
+    <t>・各会社に対するツイート数、どの企業がもっともツイートされているのか
+・ツイート数、コメント数、リツイート数、いいねの数と株価に関係はあるのか</t>
     <rPh sb="1" eb="2">
       <t>カク</t>
     </rPh>
@@ -203,10 +447,61 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ツイート数、コメント数、リツイート数、いいねの数と株価に関係はあるのか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有名グローバル大手企業を言及しているツイートデータ、日時株価を加工し分析、集計をSQLで行う。開発期間：2021/02/07
+    <t>テーブルリレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様表</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「Tweets about the Top Companies from 2015 to 2020」　Tweet, Company, Company Tweet
+「Values of Top NASDAQ Copanies from 2010 to 2020」　CompanyValues
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Company_Values.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ticker_symbol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>open_value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>high_value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>low_value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>real</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">有名グローバル大手企業を言及しているツイートデータ、日時株価を加工し分析、集計をSQLで行う。
+開発期間：2021/02/07
+対象ツイート：ツイート本文、コメント数、リツイート数、いいね数を正確に読み取れたレコードを残す。
 </t>
     <rPh sb="0" eb="2">
       <t>ユウメイ</t>
@@ -238,147 +533,50 @@
     <rPh sb="44" eb="45">
       <t>オコナ</t>
     </rPh>
-    <rPh sb="47" eb="49">
+    <rPh sb="48" eb="50">
       <t>カイハツ</t>
     </rPh>
-    <rPh sb="49" eb="51">
+    <rPh sb="50" eb="52">
       <t>キカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕様表</t>
+    <rPh sb="64" eb="66">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集計カテゴリ</t>
     <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>元データ</t>
-    <rPh sb="0" eb="1">
-      <t>モト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「Tweets about the Top Companies from 2015 to 2020」　Tweet, Company, Company Tweet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「Values of Top NASDAQ Copanies from 2010 to 2020」　Company, CompanyValues</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tweets about the Top Companies from 2015 to 2020 | Kaggle</t>
-  </si>
-  <si>
-    <t>Values of Top NASDAQ Copanies from 2010 to 2020 | Kaggle</t>
-  </si>
-  <si>
-    <t>Company_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tweet_count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>text_cat_median</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>retweetnum_mean</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>likenum_mean</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社名</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツイートされた数の合計</t>
-    <rPh sb="7" eb="8">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツイート文の平均文字数</t>
-    <rPh sb="4" eb="5">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>モジスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツイート文量の中央値</t>
-    <rPh sb="4" eb="5">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コメント数の平均</t>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘイキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リツイート数の平均</t>
-    <rPh sb="5" eb="6">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘイキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいねの数の平均</t>
-    <rPh sb="4" eb="5">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘイキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>count_text_mean</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>commentnum</t>
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>count</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -386,58 +584,53 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>max</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変数名</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンスウメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サブカテゴリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>補足</t>
+    <t>median</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集計開始の年月日</t>
     <rPh sb="0" eb="2">
-      <t>ホソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コメント数の最大値</t>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リツイート数の最大値</t>
-    <rPh sb="5" eb="6">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>サイダイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいねの数の最大値</t>
-    <rPh sb="4" eb="5">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>サイダイチ</t>
-    </rPh>
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index_startdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index_enddate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集計終了の年月日</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retweet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>like</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -445,7 +638,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,16 +661,8 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,8 +681,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -695,32 +892,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -788,12 +963,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -801,81 +1028,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -883,20 +1043,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -910,6 +1171,486 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>1</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>44986</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>114301</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="図 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4B6FFC-E08A-4208-866D-8DF18E5ECDE2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Sheet1!$A$2:$D$11" spid="_x0000_s1082"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="2057401"/>
+              <a:ext cx="7322086" cy="3714750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>57151</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>3</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>57151</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="図 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36F2120-261C-4C87-A92A-AF002BCB2D9B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Sheet1!$A$13:$C$20" spid="_x0000_s1083"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="57151" y="6238878"/>
+              <a:ext cx="2428874" cy="1657348"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="図 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39BCE27A-44E1-431E-BA1D-40F914F3AA08}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Sheet1!$A$26:$C$28" spid="_x0000_s1084"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3181350" y="6238875"/>
+              <a:ext cx="2638425" cy="600075"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>352425</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>79926</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="図 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C087ADFA-32A4-4B13-8FFB-447E4669C923}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Sheet1!$A$22:$C$24" spid="_x0000_s1085"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6610350" y="6248400"/>
+              <a:ext cx="2390775" cy="670476"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C167944-4FD6-4B52-9CC4-3EB8C08D0E70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2295525" y="6534150"/>
+          <a:ext cx="2162175" cy="57151"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13285603-56A4-4712-B872-3646665F785F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5772150" y="6572251"/>
+          <a:ext cx="1971675" cy="133349"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="25" name="図 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D509EA4-147E-462A-9C44-071B63308324}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Sheet1!$A$30:$C$37" spid="_x0000_s1086"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6600825" y="7058025"/>
+              <a:ext cx="2647950" cy="1609725"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162D0B60-D84F-4839-B685-5805444DD520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5781675" y="6715125"/>
+          <a:ext cx="2076450" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1174,124 +1915,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.75" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="8.125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75">
-      <c r="A5" s="7"/>
-      <c r="B5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="33" customHeight="1">
-      <c r="A6" s="8" t="s">
+    <row r="2" spans="1:12" ht="33" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="7"/>
-      <c r="B8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="2"/>
+      <c r="B4" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="17"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1299,12 +2038,10 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="D9" s="5"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1312,126 +2049,269 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="63">
-      <c r="A12" s="4"/>
-      <c r="B12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="4"/>
-      <c r="B13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="4"/>
-      <c r="B14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="4"/>
-      <c r="B15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="110.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="D10" s="5"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="D13" s="5"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="D15" s="5"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="D16" s="5"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="D18" s="5"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="D19" s="5"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="D20" s="5"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="D21" s="5"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="D22" s="5"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="D23" s="5"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="D24" s="5"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="D25" s="5"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="D26" s="5"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="D27" s="5"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="4"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="4"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K5"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.kaggle.com/omermetinn/tweets-about-the-top-companies-from-2015-to-2020?select=Tweet.csv" xr:uid="{66E72C38-2B61-472C-8B20-BDEF8519D8AB}"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://www.kaggle.com/omermetinn/values-of-top-nasdaq-copanies-from-2010-to-2020?select=CompanyValues.csv" xr:uid="{B7B87CD3-DB3A-495A-8BEE-870608602B79}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB773BC5-0C61-4A89-B7BE-C0371CAE8D02}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="A1:C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1442,117 +2322,504 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="55"/>
+      <c r="B6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="55"/>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="51"/>
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="53"/>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="54"/>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="53"/>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" thickBot="1">
+      <c r="A16" s="56"/>
+      <c r="B16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B1B99B-D74C-475F-B5FB-9BA3F7331F1E}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="16.375" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.25" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1"/>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="19"/>
+      <c r="B3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="47.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="19"/>
+      <c r="B5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="19"/>
+      <c r="B6" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="19"/>
+      <c r="B7" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="110.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="19"/>
+      <c r="B9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="19"/>
+      <c r="B10" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="42"/>
+      <c r="B14" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="42"/>
+      <c r="B15" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="31" t="s">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="42"/>
+      <c r="B16" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="42"/>
+      <c r="B17" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="33" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="42"/>
+      <c r="B18" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="42"/>
+      <c r="B19" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="42"/>
+      <c r="B20" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="29" t="s">
+      <c r="C20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="34" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="29" t="s">
+      <c r="C22" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="42"/>
+      <c r="B23" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="42"/>
+      <c r="B24" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="42"/>
+      <c r="B27" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="42"/>
+      <c r="B28" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="42"/>
+      <c r="B31" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="42"/>
+      <c r="B32" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="45"/>
+      <c r="B33" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="45"/>
+      <c r="B34" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>52</v>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="45"/>
+      <c r="B35" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="45"/>
+      <c r="B36" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="45"/>
+      <c r="B37" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data_Relation.xlsx
+++ b/Data_Relation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197FB29B-BD2D-4512-9346-0A2ABA0A37EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678682BD-377C-4553-9A05-9AC075397133}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,7 +694,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -767,51 +767,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1016,11 +971,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1028,10 +1011,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,52 +1023,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1095,26 +1060,20 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1122,7 +1081,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1135,27 +1094,51 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1203,7 +1186,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$2:$D$11" spid="_x0000_s1082"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$2:$D$11" spid="_x0000_s1087"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1268,7 +1251,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$13:$C$20" spid="_x0000_s1083"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$13:$C$20" spid="_x0000_s1088"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1333,7 +1316,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$26:$C$28" spid="_x0000_s1084"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$26:$C$28" spid="_x0000_s1089"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1398,7 +1381,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$22:$C$24" spid="_x0000_s1085"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$22:$C$24" spid="_x0000_s1090"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1563,7 +1546,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$30:$C$37" spid="_x0000_s1086"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$30:$C$37" spid="_x0000_s1091"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1918,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1929,71 +1912,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="33" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="45.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="17"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
@@ -2028,8 +2011,8 @@
       <c r="A8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2250,7 +2233,7 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="34" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="5"/>
@@ -2265,8 +2248,8 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="4"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="5"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2279,8 +2262,8 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="4"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="5"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2308,171 +2291,172 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB773BC5-0C61-4A89-B7BE-C0371CAE8D02}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="2:4" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:4" ht="19.5" thickBot="1">
+      <c r="B2" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C2" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D2" s="58" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
+    <row r="3" spans="2:4">
+      <c r="B3" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="11" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="55" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10" t="s">
+    <row r="4" spans="2:4">
+      <c r="B4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10" t="s">
+    <row r="5" spans="2:4">
+      <c r="B5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="50" t="s">
+    <row r="6" spans="2:4">
+      <c r="B6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="43"/>
+      <c r="C7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="2:4">
+      <c r="B8" s="44"/>
+      <c r="C8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="50" t="s">
+    <row r="9" spans="2:4">
+      <c r="B9" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="55"/>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="43"/>
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="6" t="s">
+    <row r="11" spans="2:4">
+      <c r="B11" s="44"/>
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="52" t="s">
+    <row r="12" spans="2:4">
+      <c r="B12" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="6" t="s">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="46"/>
+      <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="6" t="s">
+    <row r="14" spans="2:4">
+      <c r="B14" s="47"/>
+      <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="52" t="s">
+    <row r="15" spans="2:4">
+      <c r="B15" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="6" t="s">
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="46"/>
+      <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="12" t="s">
+    <row r="17" spans="2:4" ht="19.5" thickBot="1">
+      <c r="B17" s="48"/>
+      <c r="C17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2489,331 +2473,331 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="47"/>
+    <col min="1" max="1" width="16.375" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.25" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1"/>
     <row r="2" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="19"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="47.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="19"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="19"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="19"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="110.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="19"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="19"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="30" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="42"/>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="42"/>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="42"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="42"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="32"/>
+      <c r="B18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="42"/>
-      <c r="B19" s="31" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="42"/>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="31" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="31" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="31" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="31" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="31" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="31" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="45"/>
-      <c r="B33" s="48" t="s">
+      <c r="A33" s="35"/>
+      <c r="B33" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="39" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="45"/>
-      <c r="B34" s="48" t="s">
+      <c r="A34" s="35"/>
+      <c r="B34" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="45"/>
-      <c r="B35" s="48" t="s">
+      <c r="A35" s="35"/>
+      <c r="B35" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="39" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="45"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="39" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="45"/>
-      <c r="B37" s="48" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="39" t="s">
         <v>70</v>
       </c>
     </row>

--- a/Data_Relation.xlsx
+++ b/Data_Relation.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678682BD-377C-4553-9A05-9AC075397133}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9C921E-14C8-458E-A5A2-092855AEEB51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様表" sheetId="1" r:id="rId1"/>
     <sheet name="帳票" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="フロー図" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
   <si>
     <t>tweet_id</t>
     <phoneticPr fontId="1"/>
@@ -631,6 +632,35 @@
   </si>
   <si>
     <t>like</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015年企業ツイートデータ</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tweet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイート数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1003,7 +1033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1021,7 +1051,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1094,51 +1123,50 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1186,7 +1214,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$2:$D$11" spid="_x0000_s1087"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$2:$D$11" spid="_x0000_s1107"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1251,7 +1279,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$13:$C$20" spid="_x0000_s1088"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$13:$C$20" spid="_x0000_s1108"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1316,7 +1344,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$26:$C$28" spid="_x0000_s1089"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$26:$C$28" spid="_x0000_s1109"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1381,7 +1409,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$22:$C$24" spid="_x0000_s1090"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$22:$C$24" spid="_x0000_s1110"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1546,7 +1574,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$30:$C$37" spid="_x0000_s1091"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$30:$C$37" spid="_x0000_s1111"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1615,6 +1643,575 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="685124" cy="690241"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円柱 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B657E2-4A31-436E-A262-50FF929A4D10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266825" y="85725"/>
+          <a:ext cx="685124" cy="690241"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Tweet</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3710085</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="898195" cy="694465"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="円柱 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8653357A-3E42-4293-840D-46C6749DA129}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="85725"/>
+          <a:ext cx="898195" cy="694465"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Tweet_2015</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>724727</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="941476" cy="694465"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="円柱 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97359D28-EB6E-40A4-A977-782F8C12E63E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867150" y="85725"/>
+          <a:ext cx="941476" cy="694465"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Tweetdata01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>576208</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="941476" cy="694465"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="円柱 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{757236DB-A191-4098-BC31-797E74C33523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5362575" y="85725"/>
+          <a:ext cx="941476" cy="694465"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Tweetdata02</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>570824</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>192721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>194833</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C7CF12-8A96-4812-AC8C-CDC1859ADFD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1951949" y="430846"/>
+          <a:ext cx="438826" cy="2112"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>31420</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>194833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>194833</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC79735C-0966-4F98-9003-1646C683AE21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="4"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3288970" y="432958"/>
+          <a:ext cx="578180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>169951</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>194833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>194833</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88452E48-A723-4E01-B114-E96DB0C4C969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="4"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4122826" y="671083"/>
+          <a:ext cx="1258799" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1154162" cy="694465"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="円柱 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB65C1F-772F-407C-B87A-BE9B00CCD3D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="1371600"/>
+          <a:ext cx="1154162" cy="694465"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Company_Tweet</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4336445</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>115937</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>194833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51958</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2E3C03-6F99-4841-9F6E-13CBAA4A22D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="4"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3373487" y="432958"/>
+          <a:ext cx="493663" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1887,7 +2484,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr kumimoji="1" sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -1901,7 +2526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:K5"/>
     </sheetView>
   </sheetViews>
@@ -1912,71 +2537,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="33" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="45.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="41"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
@@ -2011,8 +2636,8 @@
       <c r="A8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2233,7 +2858,7 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="33" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="5"/>
@@ -2248,8 +2873,8 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="4"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="5"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2262,8 +2887,8 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="4"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="5"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2293,8 +2918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB773BC5-0C61-4A89-B7BE-C0371CAE8D02}">
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2306,154 +2931,158 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="44" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="41" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="55" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="55" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="42" t="s">
-        <v>48</v>
+      <c r="B6" s="39" t="s">
+        <v>86</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="43"/>
+      <c r="B7" s="49" t="s">
+        <v>85</v>
+      </c>
       <c r="C7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="44"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="43"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="44"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="48" t="s">
         <v>82</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="46"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="48" t="s">
         <v>83</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="46"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B17" s="48"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
@@ -2467,337 +3096,337 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B1B99B-D74C-475F-B5FB-9BA3F7331F1E}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.25" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="37"/>
+    <col min="1" max="1" width="16.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1"/>
     <row r="2" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="50"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="47.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="50"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="50"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="50"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="110.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="50"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="50"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="32"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="32"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="32"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="32"/>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="32"/>
-      <c r="B31" s="23" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="32"/>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="38" t="s">
+      <c r="A33" s="34"/>
+      <c r="B33" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="38" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="38" t="s">
+      <c r="A34" s="34"/>
+      <c r="B34" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="38" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="38" t="s">
+      <c r="A35" s="34"/>
+      <c r="B35" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="38" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="35"/>
-      <c r="B36" s="38" t="s">
+      <c r="A36" s="34"/>
+      <c r="B36" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="38" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="38" t="s">
+      <c r="A37" s="34"/>
+      <c r="B37" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="38" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2808,4 +3437,34 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B860984-D074-477F-9C49-82D24B549A77}">
+  <dimension ref="E1:H1"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:8">
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Data_Relation.xlsx
+++ b/Data_Relation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9C921E-14C8-458E-A5A2-092855AEEB51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F76D26-C7A8-4B00-8E1E-78E42A0BC781}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様表" sheetId="1" r:id="rId1"/>
@@ -1131,6 +1131,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1140,13 +1146,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1157,15 +1166,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,7 +1214,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$2:$D$11" spid="_x0000_s1107"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$2:$D$11" spid="_x0000_s1132"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1279,7 +1279,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$13:$C$20" spid="_x0000_s1108"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$13:$C$20" spid="_x0000_s1133"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1344,7 +1344,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$26:$C$28" spid="_x0000_s1109"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$26:$C$28" spid="_x0000_s1134"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1409,7 +1409,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$22:$C$24" spid="_x0000_s1110"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$22:$C$24" spid="_x0000_s1135"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1574,7 +1574,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$30:$C$37" spid="_x0000_s1111"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$30:$C$37" spid="_x0000_s1136"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2230,6 +2230,74 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>473869</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1083245" cy="694465"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="円柱 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F5864E-0ACE-40F8-9944-6DC1759D8AD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3736182" y="1562100"/>
+          <a:ext cx="1083245" cy="694465"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Tweetdata01_1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>576208</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2540,68 +2608,68 @@
       <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="45.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="47"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
@@ -2918,7 +2986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB773BC5-0C61-4A89-B7BE-C0371CAE8D02}">
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -2942,7 +3010,7 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="40"/>
@@ -2951,7 +3019,7 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="6"/>
@@ -2960,7 +3028,7 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="46" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="6"/>
@@ -2980,7 +3048,7 @@
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="50" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2991,7 +3059,7 @@
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="6" t="s">
         <v>76</v>
       </c>
@@ -3000,7 +3068,7 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3009,7 +3077,7 @@
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="49"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
@@ -3018,7 +3086,7 @@
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="50"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
@@ -3027,7 +3095,7 @@
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="52" t="s">
         <v>82</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -3036,7 +3104,7 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="49"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
@@ -3045,7 +3113,7 @@
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="50"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
@@ -3054,7 +3122,7 @@
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="52" t="s">
         <v>83</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -3063,7 +3131,7 @@
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="49"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
@@ -3072,7 +3140,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B17" s="56"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
@@ -3111,7 +3179,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1"/>
     <row r="2" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -3125,7 +3193,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="52"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
@@ -3135,7 +3203,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="47.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
@@ -3145,7 +3213,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="52"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
@@ -3155,7 +3223,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="52"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
@@ -3165,7 +3233,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="52"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
@@ -3175,7 +3243,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="110.25">
-      <c r="A8" s="52"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
@@ -3185,7 +3253,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="52"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="19" t="s">
         <v>10</v>
       </c>
@@ -3195,7 +3263,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="52"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
@@ -3205,7 +3273,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A11" s="53"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
@@ -3443,7 +3511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B860984-D074-477F-9C49-82D24B549A77}">
   <dimension ref="E1:H1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/Data_Relation.xlsx
+++ b/Data_Relation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F76D26-C7A8-4B00-8E1E-78E42A0BC781}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618D3C5F-E003-48A3-B75F-ADC0906F1221}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様表" sheetId="1" r:id="rId1"/>
@@ -23,25 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
-  <si>
-    <t>tweet_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
   <si>
     <t>Company_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tweet_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">count_text </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>text_cat</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -55,95 +39,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Twitter.tweet_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Twitter.tweet_idとCompany_Tweet.ticher_symbolを結合
-Company_Tweet.ticher_symbolとCompany.company_nameを結合しcompany_nameを使用
-例：google</t>
-    <rPh sb="44" eb="46">
-      <t>ケツゴウ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>ケツゴウ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>count_textより次の文字数にカテゴリ分け
-0~50文字は1
-51～100文字は2
-101～150文字は3
-151～200文字は4
-201～250文字は5
-251～300文字は6</t>
-    <rPh sb="12" eb="13">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Twitter.post_dateよりエポック時間をyyyymmddに変換</t>
-    <rPh sb="23" eb="25">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヘンカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>comment_num</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>retweet_num</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>like_num</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>close_value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tweet_date時点のCompany_nameのCompanyValues.close_value</t>
-    <rPh sb="10" eb="12">
-      <t>ジテン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -589,40 +485,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>集計開始の年月日</t>
-    <rPh sb="0" eb="2">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ネンガッピ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>index_startdate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>index_enddate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>集計終了の年月日</t>
-    <rPh sb="0" eb="2">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ネンガッピ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>comment</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -660,6 +522,193 @@
     <t>ツイート数</t>
     <rPh sb="4" eb="5">
       <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帳票作成</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査したいこと</t>
+    <rPh sb="0" eb="2">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・各会社に対するツイート数の合計からランキングをつける。</t>
+    <rPh sb="14" eb="16">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ツイート数、コメント数、リツイート数、いいねの数と株価に関係はあるのか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tweet_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text_mean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment_mean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment_max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retweet_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retweet_mean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retweet_max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>like_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>likemean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>like_max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帳票</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tweet_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tweet_date</t>
+  </si>
+  <si>
+    <t>tweet_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイートID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイート日</t>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitter.tweet_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitter.tweet_idとCompany_Tweet.ticher_symbolを結合
+Company_Tweet.ticher_symbolとCompany.company_nameを結合しcompany_nameを使用
+例：google</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tweet_date時点のCompany_nameのCompanyValues.close_value</t>
+  </si>
+  <si>
+    <t>Twitter.post_dateよりエポック時間をyyyymmddに変換</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Company_value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tweet_count_text </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tweet_comment_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tweet_retweet_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tweet_like_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Company_variation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイート翌日までの株価の上昇、下降、維持を意味する。
+上昇は1
+下降は2
+維持は3</t>
+    <rPh sb="4" eb="6">
+      <t>ヨクジツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カブカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -724,7 +773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1029,11 +1078,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1066,10 +1135,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1137,6 +1202,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1166,6 +1234,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,7 +1306,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$2:$D$11" spid="_x0000_s1132"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$2:$D$12" spid="_x0000_s1172"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1279,7 +1371,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$13:$C$20" spid="_x0000_s1133"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$14:$C$21" spid="_x0000_s1173"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1344,7 +1436,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$26:$C$28" spid="_x0000_s1134"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$27:$C$29" spid="_x0000_s1174"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1409,7 +1501,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$22:$C$24" spid="_x0000_s1135"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$23:$C$25" spid="_x0000_s1175"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1574,7 +1666,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$30:$C$37" spid="_x0000_s1136"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$31:$C$38" spid="_x0000_s1176"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2298,6 +2390,240 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>389775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>65815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>324930</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469267C7-BF5B-4DFE-A79D-B3DE887780B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3652088" y="1018315"/>
+          <a:ext cx="625717" cy="543785"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16667</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>97631</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1176348" cy="420634"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="円柱 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F621E9-CA98-4AAB-B00B-B0A6DE11F99C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="707230" y="2717006"/>
+          <a:ext cx="1176348" cy="420634"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Company_Values</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704848</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1247842" cy="420634"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="円柱 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E011F0A1-5258-415D-A892-DD3C2EDC0CA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2300286" y="2714625"/>
+          <a:ext cx="1247842" cy="420634"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Company_Values1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>288140</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>67442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704848</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69823</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B51FEC0-C793-4937-BE8D-5F48DA7CF729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="4"/>
+          <a:endCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1883578" y="2924942"/>
+          <a:ext cx="416708" cy="2381"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2594,8 +2920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2606,70 +2932,70 @@
   <sheetData>
     <row r="2" spans="1:12" ht="33" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+        <v>10</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="45.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
+        <v>47</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
+      <c r="A4" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="49"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
@@ -2702,7 +3028,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2926,8 +3252,8 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="33" t="s">
-        <v>61</v>
+      <c r="A28" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="2"/>
@@ -2984,10 +3310,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB773BC5-0C61-4A89-B7BE-C0371CAE8D02}">
-  <dimension ref="B1:D17"/>
+  <dimension ref="B1:D21"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2997,163 +3323,174 @@
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B2" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>33</v>
+    <row r="1" spans="2:4">
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="45" t="s">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="19.5" thickBot="1"/>
+    <row r="6" spans="2:4" ht="19.5" thickBot="1">
+      <c r="B6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="50"/>
+      <c r="C12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="49"/>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="50"/>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="49"/>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="50"/>
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41" t="s">
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="49"/>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="19.5" thickBot="1">
+      <c r="B21" s="52"/>
+      <c r="C21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="51"/>
-      <c r="C8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="50"/>
-      <c r="C10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="51"/>
-      <c r="C11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="50"/>
-      <c r="C13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="51"/>
-      <c r="C14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="50"/>
-      <c r="C16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B17" s="53"/>
-      <c r="C17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3162,345 +3499,512 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B1B99B-D74C-475F-B5FB-9BA3F7331F1E}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.25" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="36"/>
+    <col min="1" max="1" width="16.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1"/>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A2" s="54" t="s">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1"/>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A2" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="47.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="54"/>
+      <c r="B4" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="63"/>
+    </row>
+    <row r="5" spans="1:6" ht="63">
+      <c r="A5" s="54"/>
+      <c r="B5" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="54"/>
+      <c r="B6" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="54"/>
+      <c r="B7" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="54"/>
+      <c r="B8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="54"/>
+      <c r="B9" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="54"/>
+      <c r="B10" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A11" s="54"/>
+      <c r="B11" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A12" s="55"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="29"/>
+      <c r="B15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="29"/>
+      <c r="B16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="29"/>
+      <c r="B33" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="32"/>
+      <c r="B34" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="32"/>
+      <c r="B35" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="32"/>
+      <c r="B36" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="32"/>
+      <c r="B37" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="32"/>
+      <c r="B38" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" thickBot="1"/>
+    <row r="41" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A41" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="55"/>
-      <c r="B3" s="14" t="s">
+    </row>
+    <row r="42" spans="1:4" ht="18.75">
+      <c r="A42" s="60"/>
+      <c r="B42" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="47.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="55"/>
-      <c r="B5" s="16" t="s">
+      <c r="C42" s="38"/>
+      <c r="D42" s="39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.75">
+      <c r="A43" s="60"/>
+      <c r="B43" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75">
+      <c r="A44" s="60"/>
+      <c r="B44" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75">
+      <c r="A45" s="60"/>
+      <c r="B45" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.75">
+      <c r="A46" s="60"/>
+      <c r="B46" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="18" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="18.75">
+      <c r="A47" s="60"/>
+      <c r="B47" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="55"/>
-      <c r="B6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="55"/>
-      <c r="B7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="110.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="55"/>
-      <c r="B9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="18" t="s">
+    <row r="48" spans="1:4" ht="18.75">
+      <c r="A48" s="60"/>
+      <c r="B48" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" ht="18.75">
+      <c r="A49" s="60"/>
+      <c r="B49" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="55"/>
-      <c r="B10" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="18" t="s">
+    <row r="50" spans="1:4" ht="18.75">
+      <c r="A50" s="60"/>
+      <c r="B50" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.75">
+      <c r="A51" s="60"/>
+      <c r="B51" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" ht="18.75">
+      <c r="A52" s="60"/>
+      <c r="B52" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="21" t="s">
+    <row r="53" spans="1:4" ht="18.75">
+      <c r="A53" s="60"/>
+      <c r="B53" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.75">
+      <c r="A54" s="60"/>
+      <c r="B54" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" ht="18.75">
+      <c r="A55" s="60"/>
+      <c r="B55" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="31"/>
-      <c r="B14" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="31"/>
-      <c r="B15" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="31"/>
-      <c r="B16" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="34"/>
-      <c r="B34" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="34"/>
-      <c r="B35" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="34"/>
-      <c r="B37" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>70</v>
+    <row r="56" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A56" s="60"/>
+      <c r="B56" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A11"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A41:A56"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3511,8 +4015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B860984-D074-477F-9C49-82D24B549A77}">
   <dimension ref="E1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3523,10 +4027,10 @@
   <sheetData>
     <row r="1" spans="5:8">
       <c r="E1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Relation.xlsx
+++ b/Data_Relation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618D3C5F-E003-48A3-B75F-ADC0906F1221}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730DAA2F-4A11-44FE-8988-74F8C17349F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1205,6 +1205,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1235,29 +1253,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,7 +1306,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$2:$D$12" spid="_x0000_s1172"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$2:$D$12" spid="_x0000_s1182"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1371,7 +1371,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$14:$C$21" spid="_x0000_s1173"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$14:$C$21" spid="_x0000_s1183"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1436,7 +1436,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$27:$C$29" spid="_x0000_s1174"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$27:$C$29" spid="_x0000_s1184"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1501,7 +1501,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$23:$C$25" spid="_x0000_s1175"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$23:$C$25" spid="_x0000_s1185"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1666,7 +1666,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$A$31:$C$38" spid="_x0000_s1176"/>
+                  <a14:cameraTool cellRange="Sheet1!$A$31:$C$38" spid="_x0000_s1186"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1760,7 +1760,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -1828,7 +1828,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -1896,7 +1896,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -1964,7 +1964,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -2032,13 +2032,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>570824</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>192721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>194833</xdr:rowOff>
@@ -2088,13 +2088,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>31420</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>194833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>194833</xdr:rowOff>
@@ -2144,13 +2144,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>169951</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>194833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>194833</xdr:rowOff>
@@ -2200,7 +2200,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -2268,13 +2268,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>115937</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>194833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>51958</xdr:rowOff>
@@ -2324,7 +2324,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>473869</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -2392,13 +2392,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>389775</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>65815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>324930</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -2448,7 +2448,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>16667</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>97631</xdr:rowOff>
@@ -2509,7 +2509,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>704848</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -2570,13 +2570,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>288140</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>67442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>704848</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>69823</xdr:rowOff>
@@ -2622,6 +2622,72 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>369094</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>434572</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>233275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 書類 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C379509E-B13C-4F37-B32F-E0B2DD4A55EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="369094" y="142875"/>
+          <a:ext cx="756041" cy="328525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Tweet.csv</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2934,68 +3000,68 @@
       <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="45.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="48"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
@@ -3312,8 +3378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB773BC5-0C61-4A89-B7BE-C0371CAE8D02}">
   <dimension ref="B1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C8" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3385,7 +3451,7 @@
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="55" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -3396,7 +3462,7 @@
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="50"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="6" t="s">
         <v>64</v>
       </c>
@@ -3405,7 +3471,7 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="57" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -3414,7 +3480,7 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="49"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="6" t="s">
         <v>18</v>
       </c>
@@ -3423,7 +3489,7 @@
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="50"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="6" t="s">
         <v>19</v>
       </c>
@@ -3432,7 +3498,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="57" t="s">
         <v>66</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -3441,7 +3507,7 @@
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="49"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="6" t="s">
         <v>18</v>
       </c>
@@ -3450,7 +3516,7 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="50"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="6" t="s">
         <v>19</v>
       </c>
@@ -3459,7 +3525,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="57" t="s">
         <v>67</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -3468,7 +3534,7 @@
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="49"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="6" t="s">
         <v>18</v>
       </c>
@@ -3477,7 +3543,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B21" s="52"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
@@ -3501,7 +3567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B1B99B-D74C-475F-B5FB-9BA3F7331F1E}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -3516,7 +3582,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1"/>
     <row r="2" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -3530,26 +3596,26 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="24"/>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="51" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="54"/>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="49" t="s">
         <v>100</v>
       </c>
       <c r="C4" s="24"/>
-      <c r="D4" s="63"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:6" ht="63">
-      <c r="A5" s="54"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="50" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="25"/>
@@ -3558,8 +3624,8 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="54"/>
-      <c r="B6" s="62" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="50" t="s">
         <v>91</v>
       </c>
       <c r="C6" s="25"/>
@@ -3571,8 +3637,8 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54"/>
-      <c r="B7" s="62" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="50" t="s">
         <v>92</v>
       </c>
       <c r="C7" s="25"/>
@@ -3581,7 +3647,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="54"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="14" t="s">
         <v>101</v>
       </c>
@@ -3591,7 +3657,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="54"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="17" t="s">
         <v>102</v>
       </c>
@@ -3601,7 +3667,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="54"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="17" t="s">
         <v>103</v>
       </c>
@@ -3611,7 +3677,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A11" s="54"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="18" t="s">
         <v>104</v>
       </c>
@@ -3621,7 +3687,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A12" s="55"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="18"/>
       <c r="C12" s="27"/>
       <c r="D12" s="19"/>
@@ -3844,7 +3910,7 @@
     </row>
     <row r="40" spans="1:4" ht="16.5" thickBot="1"/>
     <row r="41" spans="1:4" ht="19.5" thickBot="1">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="62" t="s">
         <v>89</v>
       </c>
       <c r="B41" s="40" t="s">
@@ -3858,7 +3924,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75">
-      <c r="A42" s="60"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="43" t="s">
         <v>0</v>
       </c>
@@ -3868,7 +3934,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.75">
-      <c r="A43" s="60"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="44" t="s">
         <v>91</v>
       </c>
@@ -3878,7 +3944,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.75">
-      <c r="A44" s="60"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="44" t="s">
         <v>93</v>
       </c>
@@ -3888,7 +3954,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.75">
-      <c r="A45" s="60"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="45" t="s">
         <v>77</v>
       </c>
@@ -3898,8 +3964,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.75">
-      <c r="A46" s="60"/>
-      <c r="B46" s="56" t="s">
+      <c r="A46" s="63"/>
+      <c r="B46" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C46" s="6"/>
@@ -3908,8 +3974,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.75">
-      <c r="A47" s="60"/>
-      <c r="B47" s="57" t="s">
+      <c r="A47" s="63"/>
+      <c r="B47" s="47" t="s">
         <v>79</v>
       </c>
       <c r="C47" s="6"/>
@@ -3918,16 +3984,16 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.75">
-      <c r="A48" s="60"/>
-      <c r="B48" s="58" t="s">
+      <c r="A48" s="63"/>
+      <c r="B48" s="48" t="s">
         <v>80</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" ht="18.75">
-      <c r="A49" s="60"/>
-      <c r="B49" s="58" t="s">
+      <c r="A49" s="63"/>
+      <c r="B49" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C49" s="6"/>
@@ -3936,8 +4002,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.75">
-      <c r="A50" s="60"/>
-      <c r="B50" s="58" t="s">
+      <c r="A50" s="63"/>
+      <c r="B50" s="48" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="6"/>
@@ -3946,16 +4012,16 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="18.75">
-      <c r="A51" s="60"/>
-      <c r="B51" s="58" t="s">
+      <c r="A51" s="63"/>
+      <c r="B51" s="48" t="s">
         <v>83</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" ht="18.75">
-      <c r="A52" s="60"/>
-      <c r="B52" s="58" t="s">
+      <c r="A52" s="63"/>
+      <c r="B52" s="48" t="s">
         <v>84</v>
       </c>
       <c r="C52" s="6"/>
@@ -3964,8 +4030,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="18.75">
-      <c r="A53" s="60"/>
-      <c r="B53" s="58" t="s">
+      <c r="A53" s="63"/>
+      <c r="B53" s="48" t="s">
         <v>85</v>
       </c>
       <c r="C53" s="6"/>
@@ -3974,16 +4040,16 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="18.75">
-      <c r="A54" s="60"/>
-      <c r="B54" s="58" t="s">
+      <c r="A54" s="63"/>
+      <c r="B54" s="48" t="s">
         <v>86</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" ht="18.75">
-      <c r="A55" s="60"/>
-      <c r="B55" s="58" t="s">
+      <c r="A55" s="63"/>
+      <c r="B55" s="48" t="s">
         <v>87</v>
       </c>
       <c r="C55" s="6"/>
@@ -3992,8 +4058,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="19.5" thickBot="1">
-      <c r="A56" s="60"/>
-      <c r="B56" s="58" t="s">
+      <c r="A56" s="63"/>
+      <c r="B56" s="48" t="s">
         <v>88</v>
       </c>
       <c r="C56" s="8"/>
@@ -4013,23 +4079,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B860984-D074-477F-9C49-82D24B549A77}">
-  <dimension ref="E1:H1"/>
+  <dimension ref="F1:I1"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:8">
-      <c r="E1" t="s">
+    <row r="1" spans="6:9">
+      <c r="F1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>73</v>
       </c>
     </row>

--- a/Data_Relation.xlsx
+++ b/Data_Relation.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388459E0-C478-42B2-A6DB-83CF7BE96B5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C49DCC0-5E02-4326-BC90-E38FA301B57A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ポートフォリオ狙い" sheetId="6" r:id="rId1"/>
     <sheet name="要件定義" sheetId="1" r:id="rId2"/>
-    <sheet name="テーブルリレーション" sheetId="5" r:id="rId3"/>
-    <sheet name="帳票" sheetId="2" r:id="rId4"/>
+    <sheet name="帳票データ1" sheetId="2" r:id="rId3"/>
+    <sheet name="帳票データ2" sheetId="7" r:id="rId4"/>
     <sheet name="表画像用（非表示）" sheetId="3" r:id="rId5"/>
     <sheet name="フロー図" sheetId="4" r:id="rId6"/>
   </sheets>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
   <si>
     <t>Company_name</t>
     <phoneticPr fontId="1"/>
@@ -272,10 +272,6 @@
   </si>
   <si>
     <t>Company_Tweet.csv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブルリレーション</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -716,12 +712,86 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Tweetデータが自分のPC上だとフルサイズのデータが流せない。</t>
+    <rPh sb="9" eb="11">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのため、2015年だけに絞り一連のデータを作成してみる。</t>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチレン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成し終えたら、2016年、・・・2020年データをひとつづつ作成。</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成手順</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後にデータを縦結合を行う。</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,14 +801,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -842,61 +904,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,14 +994,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1752600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -982,13 +1055,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>512619</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>7792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>280555</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1045,13 +1118,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>2457450</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>131989</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>39460</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
@@ -1067,7 +1140,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$45:$B$48" spid="_x0000_s1194"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$45:$B$48" spid="_x0000_s1196"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1110,13 +1183,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>123826</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>63953</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>506187</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>88446</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
@@ -1132,7 +1205,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$50:$B$58" spid="_x0000_s1195"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$50:$B$58" spid="_x0000_s1197"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1173,13 +1246,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>554179</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>76694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2456087</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>122463</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1224,13 +1297,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3279321</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>129268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>564696</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>74839</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1275,13 +1348,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>88448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1326,13 +1399,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2354035</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3385086</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>5103</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1394,13 +1467,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>451757</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>84365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>89887</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:colOff>161382</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>7825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1417,7 +1490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4520293" y="5037365"/>
-          <a:ext cx="889987" cy="522174"/>
+          <a:ext cx="961482" cy="522174"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -1453,6 +1526,11 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>帳票データ</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1460,16 +1538,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>312964</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>108856</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>663658</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>67649</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>255443</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>81256</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1484,7 +1562,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6313714" y="5061856"/>
+          <a:off x="4544785" y="6422570"/>
           <a:ext cx="1031051" cy="407829"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
@@ -1539,13 +1617,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2869561</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1595,13 +1673,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2869561</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>39460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3328987</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1651,13 +1729,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3306535</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1702,13 +1780,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3385086</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>43373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>451757</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>46095</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1729,6 +1807,303 @@
         <a:xfrm>
           <a:off x="4011015" y="5295730"/>
           <a:ext cx="509278" cy="2722"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>177710</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>64974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="円柱 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDBAD4A-F293-406E-82B7-AF599E75C877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4536621" y="5693229"/>
+          <a:ext cx="961482" cy="522174"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>帳票データ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3385086</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>43373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>103245</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E27E44-F106-412C-B5B5-9F090025BCA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="4"/>
+          <a:endCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4011015" y="5295730"/>
+          <a:ext cx="525606" cy="658586"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3385086</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>43373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27021</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E693E296-5D64-4DF9-907C-90E048C6EE38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="4"/>
+          <a:endCxn id="37" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4011015" y="5295730"/>
+          <a:ext cx="533770" cy="1330755"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2869561</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>315007</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6765FDB7-8083-4540-8251-63527AF82DCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3495490" y="3544660"/>
+          <a:ext cx="2820267" cy="1489983"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2869561</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>512619</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71832C90-0CB4-4D3C-AED4-B2787D24EEA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="1"/>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3495490" y="1672627"/>
+          <a:ext cx="1711593" cy="3362016"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3066,131 +3441,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C04812-BB9B-4380-A81A-2D4D724EA9B8}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="72.75" style="16" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="72.75" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" ht="36">
+      <c r="A2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" ht="36">
-      <c r="A2" s="17" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="14" t="s">
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="18" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="19" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="19" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="20" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="18"/>
+      <c r="A20" s="17"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="19"/>
+      <c r="A22" s="18"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="19"/>
+      <c r="A23" s="18"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="19"/>
+      <c r="A24" s="18"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="20"/>
+      <c r="A25" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3200,314 +3575,450 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="45.25" style="23" customWidth="1"/>
-    <col min="3" max="4" width="8.125" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="45.25" style="22" customWidth="1"/>
+    <col min="3" max="4" width="8.125" style="22" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="72">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="11"/>
+      <c r="B4" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="11"/>
+      <c r="B5" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="12"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="12"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="4:12">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="4:12">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="4:12">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="4:12">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="4:12">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="4:12">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="4:12">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="4:12">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="4:12">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="4:12">
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="4:12">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="4:12">
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="4:12">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="4:12">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="4:12">
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="4:12">
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="11"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="11"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3519,27 +4030,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7883503-4787-4D43-81B5-CBA05ABBD8CC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB773BC5-0C61-4A89-B7BE-C0371CAE8D02}">
   <dimension ref="B1:B3"/>
   <sheetViews>
@@ -3556,17 +4046,17 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3576,466 +4066,481 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B0E039-F840-4CA7-AA05-3A307F839AD8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B1B99B-D74C-475F-B5FB-9BA3F7331F1E}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A50" sqref="A50:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="36">
+      <c r="A10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="36">
-      <c r="A10" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="8" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="8" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="8" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="8" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="8" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="8" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="8" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="8"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="7" t="s">
+      <c r="B52" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="10" t="s">
+      <c r="B55" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="10" t="s">
+      <c r="B56" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="10" t="s">
+      <c r="B57" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4060,10 +4565,10 @@
   <sheetData>
     <row r="1" spans="6:9">
       <c r="F1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Relation.xlsx
+++ b/Data_Relation.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C49DCC0-5E02-4326-BC90-E38FA301B57A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF00E37E-B4F0-4EC4-B979-6858F88D6325}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ポートフォリオ狙い" sheetId="6" r:id="rId1"/>
     <sheet name="要件定義" sheetId="1" r:id="rId2"/>
-    <sheet name="帳票データ1" sheetId="2" r:id="rId3"/>
-    <sheet name="帳票データ2" sheetId="7" r:id="rId4"/>
-    <sheet name="表画像用（非表示）" sheetId="3" r:id="rId5"/>
-    <sheet name="フロー図" sheetId="4" r:id="rId6"/>
+    <sheet name="帳票用データ" sheetId="8" r:id="rId3"/>
+    <sheet name="帳票データ1" sheetId="2" r:id="rId4"/>
+    <sheet name="帳票データ2" sheetId="7" r:id="rId5"/>
+    <sheet name="表画像用（非表示）" sheetId="3" r:id="rId6"/>
+    <sheet name="フロー図" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="113">
   <si>
     <t>Company_name</t>
     <phoneticPr fontId="1"/>
@@ -52,16 +53,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仕様表</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>元データ</t>
     <rPh sb="0" eb="1">
       <t>モト</t>
@@ -76,35 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ツイート文の平均文字数</t>
-    <rPh sb="4" eb="5">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>モジスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツイート文量の中央値</t>
-    <rPh sb="4" eb="5">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コメント数の平均</t>
     <rPh sb="4" eb="5">
       <t>スウ</t>
@@ -356,15 +318,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>text_count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>text_mean</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>comment_count</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -414,45 +368,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tweet_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tweet_date</t>
   </si>
   <si>
-    <t>tweet_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツイートID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツイート日</t>
-    <rPh sb="4" eb="5">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Company_value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Tweet_count_text </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tweet_comment_num</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tweet_retweet_num</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tweet_like_num</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -466,31 +385,6 @@
   </si>
   <si>
     <t>post_dateよりエポック時間をyyyymmddに変換</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Twitter.bodyよりツイート本文の文字数を日付ごとにカウント</t>
-    <rPh sb="18" eb="20">
-      <t>ホンブン</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Twitter.comment_num　を日付ごとにカウント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Twitter.retweet_numを日付ごとにカウント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Twitter.like_numを日付ごとにカウント</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -784,6 +678,152 @@
     <rPh sb="11" eb="12">
       <t>オコナ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帳票用データ</t>
+    <rPh sb="0" eb="3">
+      <t>チョウヒョウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tweet_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text_SUM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイート文の文字数の合計</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイート文の文字数の平均値</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment_SUM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント数の合計</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tweet_comment_MAX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitter.comment_num　の最大値</t>
+    <rPh sb="21" eb="24">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイート数をカウントする。</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Company_name、tweet_dateでグルーピングを行う</t>
+    <rPh sb="32" eb="33">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tweet_retweet_MAX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitter.retweet_num　の最大値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tweet_like_MAX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitter.like_num　の最大値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tweet_text_SUM </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tweet_comment_SUM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitter.bodyよりツイート本文の文字数の合計</t>
+    <rPh sb="18" eb="20">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitter.comment_num　の合計</t>
+    <rPh sb="21" eb="23">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tweet_retweet_SUM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitter.retweet_num の合計</t>
+    <rPh sb="21" eb="23">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitter.like_num　の合計</t>
+    <rPh sb="18" eb="20">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tweet_like_SUM</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1140,7 +1180,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$45:$B$48" spid="_x0000_s1196"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$47:$B$50" spid="_x0000_s1210"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1205,7 +1245,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$50:$B$58" spid="_x0000_s1197"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$52:$B$60" spid="_x0000_s1211"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2134,6 +2174,76 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="64" name="図 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97D4F38-F1E4-420D-98E2-259528EAF14E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$1:$C$14" spid="_x0000_s7238"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="704850" y="238125"/>
+              <a:ext cx="5286375" cy="2590800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2198,7 +2308,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3453,7 +3563,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="20" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3467,7 +3577,7 @@
     </row>
     <row r="2" spans="1:10" ht="36">
       <c r="A2" s="16" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3481,72 +3591,72 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="13" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="18" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="18" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="18" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="18" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="18" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="19" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="13" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="17" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="18" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="19" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="21" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -3577,7 +3687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -3591,12 +3701,12 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="72">
       <c r="B2" s="12" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -3625,7 +3735,7 @@
     <row r="4" spans="1:12">
       <c r="A4" s="11"/>
       <c r="B4" s="24" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -3641,7 +3751,7 @@
     <row r="5" spans="1:12">
       <c r="A5" s="11"/>
       <c r="B5" s="25" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -3657,7 +3767,7 @@
     <row r="6" spans="1:12">
       <c r="A6" s="11"/>
       <c r="B6" s="26" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -3673,7 +3783,7 @@
     <row r="7" spans="1:12">
       <c r="A7" s="11"/>
       <c r="B7" s="26" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -3689,7 +3799,7 @@
     <row r="8" spans="1:12">
       <c r="A8" s="11"/>
       <c r="B8" s="27" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -4030,6 +4140,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C8C1E7-7372-4E6B-B694-89E4A957C6F0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB773BC5-0C61-4A89-B7BE-C0371CAE8D02}">
   <dimension ref="B1:B3"/>
   <sheetViews>
@@ -4046,17 +4173,17 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4066,7 +4193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B0E039-F840-4CA7-AA05-3A307F839AD8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4081,12 +4208,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B1B99B-D74C-475F-B5FB-9BA3F7331F1E}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:B58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4102,7 +4229,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>90</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4110,7 +4240,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -4122,177 +4252,181 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>79</v>
+      <c r="C5" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="36">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="5" t="s">
-        <v>84</v>
+      <c r="C10" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>64</v>
+      <c r="A12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="36">
+      <c r="A14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
+      <c r="B17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="7" t="s">
-        <v>54</v>
+      <c r="A19" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="7" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
@@ -4301,23 +4435,23 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
@@ -4326,221 +4460,237 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
-        <v>15</v>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>23</v>
+      <c r="A30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>25</v>
+      <c r="A32" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>26</v>
+      <c r="A33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>25</v>
+      <c r="B37" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="8"/>
+      <c r="A40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="A42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="8"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="8"/>
+      <c r="A45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="B47" s="8"/>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-    </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>38</v>
+      <c r="A50" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>25</v>
+      <c r="A55" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4549,7 +4699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B860984-D074-477F-9C49-82D24B549A77}">
   <dimension ref="F1:I1"/>
   <sheetViews>
@@ -4565,10 +4715,10 @@
   <sheetData>
     <row r="1" spans="6:9">
       <c r="F1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Relation.xlsx
+++ b/Data_Relation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF00E37E-B4F0-4EC4-B979-6858F88D6325}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B0BF41-E43F-46C9-B5DD-A9D2E4166D4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ポートフォリオ狙い" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="表画像用（非表示）" sheetId="3" r:id="rId6"/>
     <sheet name="フロー図" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="121">
   <si>
     <t>Company_name</t>
     <phoneticPr fontId="1"/>
@@ -354,13 +354,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>帳票</t>
-    <rPh sb="0" eb="2">
-      <t>チョウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>型</t>
     <rPh sb="0" eb="1">
       <t>カタ</t>
@@ -391,30 +384,6 @@
     <t>Conpany_values.close_valueを結合</t>
     <rPh sb="27" eb="29">
       <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツイート前日との比較
-終値の
-上昇は1、下降は2、維持は3</t>
-    <rPh sb="4" eb="6">
-      <t>ゼンジツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>オワリネ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウショウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カコウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -722,10 +691,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>comment_SUM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コメント数の合計</t>
     <rPh sb="4" eb="5">
       <t>スウ</t>
@@ -824,6 +789,94 @@
   </si>
   <si>
     <t>Tweet_like_SUM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイート前日との比較
+終値の
+上昇は'↑'、下降は'↓'、維持は'→'</t>
+    <rPh sb="4" eb="6">
+      <t>ゼンジツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オワリネ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帳票1</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帳票2</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Company_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Company_variation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リツイート数</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいね数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1180,7 +1233,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$47:$B$50" spid="_x0000_s1210"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$70:$B$73" spid="_x0000_s1228"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1245,7 +1298,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$52:$B$60" spid="_x0000_s1211"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$75:$B$83" spid="_x0000_s1229"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2202,7 +2255,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$1:$C$14" spid="_x0000_s7238"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$1:$C$14" spid="_x0000_s7247"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2239,6 +2292,54 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7171" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3036C39B-15B4-48AB-81AD-FCE116E3E108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="714375" y="247650"/>
+          <a:ext cx="5295900" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3563,7 +3664,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3577,7 +3678,7 @@
     </row>
     <row r="2" spans="1:10" ht="36">
       <c r="A2" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3591,72 +3692,72 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -3687,7 +3788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -3706,7 +3807,7 @@
     </row>
     <row r="2" spans="1:12" ht="72">
       <c r="B2" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -3735,7 +3836,7 @@
     <row r="4" spans="1:12">
       <c r="A4" s="11"/>
       <c r="B4" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -3751,7 +3852,7 @@
     <row r="5" spans="1:12">
       <c r="A5" s="11"/>
       <c r="B5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -3767,7 +3868,7 @@
     <row r="6" spans="1:12">
       <c r="A6" s="11"/>
       <c r="B6" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -3783,7 +3884,7 @@
     <row r="7" spans="1:12">
       <c r="A7" s="11"/>
       <c r="B7" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -3799,7 +3900,7 @@
     <row r="8" spans="1:12">
       <c r="A8" s="11"/>
       <c r="B8" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -4197,11 +4298,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B0E039-F840-4CA7-AA05-3A307F839AD8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4210,10 +4314,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B1B99B-D74C-475F-B5FB-9BA3F7331F1E}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4229,10 +4333,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4252,111 +4356,111 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="36">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="5" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4364,7 +4468,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>9</v>
@@ -4390,11 +4494,11 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4403,16 +4507,16 @@
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="7" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4438,7 +4542,9 @@
         <v>53</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="7" t="s">
@@ -4463,7 +4569,9 @@
         <v>56</v>
       </c>
       <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="7" t="s">
@@ -4484,218 +4592,361 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="36">
+      <c r="A35" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="6" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="7" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="7" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B58" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="7" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="7" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B60" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="7" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B61" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="6" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="6" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B63" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="8"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="6" t="s">
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B66" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="6" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B67" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="6" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B68" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="8"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="6" t="s">
+      <c r="B70" s="8"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B71" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="6" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B72" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="6" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B73" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="6" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B76" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="6" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B77" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="6" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B78" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="9" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B79" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="9" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B80" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="9" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B81" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="9" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B82" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="9" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B83" s="9" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data_Relation.xlsx
+++ b/Data_Relation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B0BF41-E43F-46C9-B5DD-A9D2E4166D4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B4D6D3-5E96-44B0-9714-D2B8C81E822E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ポートフォリオ狙い" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="125">
   <si>
     <t>Company_name</t>
     <phoneticPr fontId="1"/>
@@ -374,10 +374,6 @@
   <si>
     <t>Company_Tweet.ticher_symbol
 例：google</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>post_dateよりエポック時間をyyyymmddに変換</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -650,13 +646,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>帳票用データ</t>
-    <rPh sb="0" eb="3">
-      <t>チョウヒョウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tweet_num</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -876,6 +865,55 @@
     <t>いいね数</t>
     <rPh sb="3" eb="4">
       <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_dateよりエポック時間をyyyymmddに変換
+2015-01-01~2020-05-29までの値を持つ</t>
+    <rPh sb="54" eb="55">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tweet_tmdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tweet_dateの年月を持つ</t>
+    <rPh sb="11" eb="13">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帳票用データ1</t>
+    <rPh sb="0" eb="3">
+      <t>チョウヒョウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帳票用データ2</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Company_name,tweet_ymdateでグルーピングを行う</t>
+    <rPh sb="34" eb="35">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -997,7 +1035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1063,6 +1101,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1233,7 +1277,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$70:$B$73" spid="_x0000_s1228"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$86:$B$89" spid="_x0000_s1230"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1298,7 +1342,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$75:$B$83" spid="_x0000_s1229"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$91:$B$99" spid="_x0000_s1231"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2255,7 +2299,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$1:$C$14" spid="_x0000_s7247"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$1:$C$15" spid="_x0000_s7248"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3664,7 +3708,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3678,7 +3722,7 @@
     </row>
     <row r="2" spans="1:10" ht="36">
       <c r="A2" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3692,72 +3736,72 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -3807,7 +3851,7 @@
     </row>
     <row r="2" spans="1:12" ht="72">
       <c r="B2" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -3836,7 +3880,7 @@
     <row r="4" spans="1:12">
       <c r="A4" s="11"/>
       <c r="B4" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -3852,7 +3896,7 @@
     <row r="5" spans="1:12">
       <c r="A5" s="11"/>
       <c r="B5" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -3868,7 +3912,7 @@
     <row r="6" spans="1:12">
       <c r="A6" s="11"/>
       <c r="B6" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -3884,7 +3928,7 @@
     <row r="7" spans="1:12">
       <c r="A7" s="11"/>
       <c r="B7" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -3900,7 +3944,7 @@
     <row r="8" spans="1:12">
       <c r="A8" s="11"/>
       <c r="B8" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -4298,7 +4342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B0E039-F840-4CA7-AA05-3A307F839AD8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4314,10 +4358,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B1B99B-D74C-475F-B5FB-9BA3F7331F1E}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4333,10 +4377,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4359,587 +4403,733 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="24">
       <c r="A4" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>64</v>
+      <c r="C4" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="5" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>104</v>
+      <c r="C6" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="36">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="36">
+      <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="36">
+      <c r="A30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="9" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="36">
-      <c r="A35" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7" t="s">
-        <v>44</v>
+      <c r="A36" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7" t="s">
-        <v>92</v>
+        <v>109</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7" t="s">
-        <v>93</v>
+        <v>51</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7" t="s">
-        <v>10</v>
+        <v>53</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7" t="s">
-        <v>7</v>
+        <v>55</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="36">
+      <c r="A51" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7" t="s">
+      <c r="B62" s="7"/>
+      <c r="C62" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="7" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7" t="s">
+      <c r="B63" s="7"/>
+      <c r="C63" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="8"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" s="8"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>29</v>
+      <c r="A73" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
+      <c r="A74" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>35</v>
+      <c r="A75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>27</v>
+      <c r="A76" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>32</v>
+      <c r="A77" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="8"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B94" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="9" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B95" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="9" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B96" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="9" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B97" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="9" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B98" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="9" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B99" s="9" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Data_Relation.xlsx
+++ b/Data_Relation.xlsx
@@ -3,18 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B4D6D3-5E96-44B0-9714-D2B8C81E822E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8450CFD8-A207-4113-9014-F26018FEF208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ポートフォリオ狙い" sheetId="6" r:id="rId1"/>
     <sheet name="要件定義" sheetId="1" r:id="rId2"/>
     <sheet name="帳票用データ" sheetId="8" r:id="rId3"/>
-    <sheet name="帳票データ1" sheetId="2" r:id="rId4"/>
-    <sheet name="帳票データ2" sheetId="7" r:id="rId5"/>
-    <sheet name="表画像用（非表示）" sheetId="3" r:id="rId6"/>
-    <sheet name="フロー図" sheetId="4" r:id="rId7"/>
+    <sheet name="帳票データ" sheetId="2" r:id="rId4"/>
+    <sheet name="表画像用（非表示）" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="132">
   <si>
     <t>Company_name</t>
     <phoneticPr fontId="1"/>
@@ -269,16 +267,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2015年企業ツイートデータ</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ツイート数</t>
     <rPh sb="4" eb="5">
       <t>スウ</t>
@@ -286,34 +274,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>帳票作成</t>
-    <rPh sb="0" eb="2">
-      <t>チョウヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調査したいこと</t>
-    <rPh sb="0" eb="2">
-      <t>チョウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・各会社に対するツイート数の合計からランキングをつける。</t>
-    <rPh sb="14" eb="16">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ツイート数、コメント数、リツイート数、いいねの数と株価に関係はあるのか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tweet_count</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -411,15 +371,6 @@
   </si>
   <si>
     <t>・SQLデータ処理プログラムコード</t>
-  </si>
-  <si>
-    <t>・帳票データ</t>
-  </si>
-  <si>
-    <t>・Pythonデータ可視化プログラムコード</t>
-  </si>
-  <si>
-    <t>・可視化データ画像</t>
   </si>
   <si>
     <t>データ分析環境構築からcsvデータの取り込み、SQLデータ帳票作成、データ可視化までのプログラムを完成させ、ツイートデータとグローバル企業の株価の関係性を調査することを狙いとする。
@@ -914,6 +865,189 @@
     <t>※Company_name,tweet_ymdateでグルーピングを行う</t>
     <rPh sb="34" eb="35">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・可視化データ画像 4つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Pythonデータ可視化プログラムコード　1つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・帳票データ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社名毎に集計する</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャメイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成データ</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帳票用データ1</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帳票用データ2</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社ごとに、ツイートの年月日に基づきグルーピング集計を行ったもの。</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社ごとに、ツイートの年月に基づきグルーピング集計を行ったもの。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社名毎のツイート数、ツイート文字数統計、コメント数統計、リツイート数統計、いいね数統計を集計する。最大値の変数が記録された年月を特定</t>
+    <rPh sb="45" eb="47">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付毎の株価変化とツイッター統計情報の集計表を作成、最大値の変数が記録された年月を特定</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カブカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帳票2</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帳票1</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Conpany_values.close_valueを結合し、ツイート年月の中で平均値を株価とする</t>
+    <rPh sb="27" eb="29">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カブカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1035,7 +1169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1108,6 +1242,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1277,7 +1414,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$86:$B$89" spid="_x0000_s1230"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$86:$B$89" spid="_x0000_s1254"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1342,7 +1479,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$91:$B$99" spid="_x0000_s1231"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$91:$B$99" spid="_x0000_s1255"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2277,14 +2414,14 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>238124</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>4695546</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -2299,7 +2436,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$1:$C$15" spid="_x0000_s7248"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$1:$C$15" spid="_x0000_s7272"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2313,8 +2450,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="704850" y="238125"/>
-              <a:ext cx="5286375" cy="2590800"/>
+              <a:off x="704850" y="952499"/>
+              <a:ext cx="5752821" cy="2819401"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2340,13 +2477,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4248150</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2384,1009 +2521,206 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>581025</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="図 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491CAF39-CD01-475C-8012-E4E616B7091D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$17:$C$30" spid="_x0000_s7273"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7058025" y="942975"/>
+              <a:ext cx="6048375" cy="2590800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>484032</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B76842A-86DA-46CE-AAF9-0711DB9121D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="690562" y="952500"/>
-          <a:ext cx="6722908" cy="3107531"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="685124" cy="690241"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="円柱 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B657E2-4A31-436E-A262-50FF929A4D10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1266825" y="85725"/>
-          <a:ext cx="685124" cy="690241"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Tweet</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>3710085</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="898195" cy="694465"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="円柱 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8653357A-3E42-4293-840D-46C6749DA129}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2390775" y="85725"/>
-          <a:ext cx="898195" cy="694465"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Tweet_2015</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>724727</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="941476" cy="694465"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="円柱 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97359D28-EB6E-40A4-A977-782F8C12E63E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3867150" y="85725"/>
-          <a:ext cx="941476" cy="694465"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Tweetdata01</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>576208</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="941476" cy="694465"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="円柱 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{757236DB-A191-4098-BC31-797E74C33523}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5362575" y="85725"/>
-          <a:ext cx="941476" cy="694465"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Tweetdata02</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>6</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>570824</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>192721</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>194833</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C7CF12-8A96-4812-AC8C-CDC1859ADFD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="4"/>
-          <a:endCxn id="3" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1951949" y="430846"/>
-          <a:ext cx="438826" cy="2112"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>31420</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>194833</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>194833</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC79735C-0966-4F98-9003-1646C683AE21}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="4"/>
-          <a:endCxn id="4" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3288970" y="432958"/>
-          <a:ext cx="578180" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>169951</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>194833</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>194833</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88452E48-A723-4E01-B114-E96DB0C4C969}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="4"/>
-          <a:endCxn id="5" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4122826" y="671083"/>
-          <a:ext cx="1258799" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1154162" cy="694465"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="円柱 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB65C1F-772F-407C-B87A-BE9B00CCD3D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2219325" y="1371600"/>
-          <a:ext cx="1154162" cy="694465"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Company_Tweet</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>4336445</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>115937</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>194833</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>51958</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2E3C03-6F99-4841-9F6E-13CBAA4A22D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="4"/>
-          <a:endCxn id="4" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3373487" y="432958"/>
-          <a:ext cx="493663" cy="1285875"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>473869</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1083245" cy="694465"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="円柱 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F5864E-0ACE-40F8-9944-6DC1759D8AD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3736182" y="1562100"/>
-          <a:ext cx="1083245" cy="694465"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Tweetdata01_1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>576208</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>389775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>65815</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>324930</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469267C7-BF5B-4DFE-A79D-B3DE887780B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="12" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3652088" y="1018315"/>
-          <a:ext cx="625717" cy="543785"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16667</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>97631</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1176348" cy="420634"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="円柱 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F621E9-CA98-4AAB-B00B-B0A6DE11F99C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="707230" y="2717006"/>
-          <a:ext cx="1176348" cy="420634"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Company_Values</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>704848</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1247842" cy="420634"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="円柱 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E011F0A1-5258-415D-A892-DD3C2EDC0CA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2300286" y="2714625"/>
-          <a:ext cx="1247842" cy="420634"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Company_Values1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>288140</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>67442</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>704848</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>69823</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B51FEC0-C793-4937-BE8D-5F48DA7CF729}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="4"/>
-          <a:endCxn id="16" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1883578" y="2924942"/>
-          <a:ext cx="416708" cy="2381"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>369094</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>434572</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>233275</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フローチャート: 書類 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C379509E-B13C-4F37-B32F-E0B2DD4A55EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="369094" y="142875"/>
-          <a:ext cx="756041" cy="328525"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Tweet.csv</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>-1</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>4974094</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>202406</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="図 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D876A080-BEE2-43FA-9224-474162A0F9F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$32:$C$46" spid="_x0000_s8217"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="690562" y="1190625"/>
+              <a:ext cx="6510001" cy="2821781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>5393530</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>11905</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1099000</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>71437</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="図 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06B2B537-F3A0-4694-BDA7-DE536879AA34}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$48:$C$63" spid="_x0000_s8218"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7619999" y="2155030"/>
+              <a:ext cx="6528251" cy="3393282"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -3697,7 +3031,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3708,7 +3042,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3722,7 +3056,7 @@
     </row>
     <row r="2" spans="1:10" ht="36">
       <c r="A2" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3736,72 +3070,72 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="18" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="18" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="19" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="13" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="18" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="19" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -3825,6 +3159,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3832,7 +3167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -3851,7 +3186,7 @@
     </row>
     <row r="2" spans="1:12" ht="72">
       <c r="B2" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -3880,7 +3215,7 @@
     <row r="4" spans="1:12">
       <c r="A4" s="11"/>
       <c r="B4" s="24" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -3896,7 +3231,7 @@
     <row r="5" spans="1:12">
       <c r="A5" s="11"/>
       <c r="B5" s="25" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -3912,7 +3247,7 @@
     <row r="6" spans="1:12">
       <c r="A6" s="11"/>
       <c r="B6" s="26" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -3928,7 +3263,7 @@
     <row r="7" spans="1:12">
       <c r="A7" s="11"/>
       <c r="B7" s="26" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -3944,7 +3279,7 @@
     <row r="8" spans="1:12">
       <c r="A8" s="11"/>
       <c r="B8" s="27" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -4286,14 +3621,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C8C1E7-7372-4E6B-B694-89E4A957C6F0}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B1" sqref="B1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="30"/>
+    <col min="2" max="2" width="14.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.25" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4302,73 +3668,65 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB773BC5-0C61-4A89-B7BE-C0371CAE8D02}">
-  <dimension ref="B1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB773BC5-0C61-4A89-B7BE-C0371CAE8D02}">
+  <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A6" sqref="A5:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="142" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>48</v>
+    <row r="1" spans="2:3">
+      <c r="B1" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B0E039-F840-4CA7-AA05-3A307F839AD8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B1B99B-D74C-475F-B5FB-9BA3F7331F1E}">
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="17.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.375" style="2" bestFit="1" customWidth="1"/>
@@ -4377,10 +3735,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4400,115 +3758,115 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="36">
       <c r="A15" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4518,10 +3876,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4541,106 +3899,106 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="36">
       <c r="A30" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4650,7 +4008,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4658,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>9</v>
@@ -4675,43 +4036,43 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
@@ -4720,7 +4081,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
@@ -4729,16 +4090,16 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
@@ -4747,7 +4108,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
@@ -4756,16 +4117,16 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
@@ -4774,7 +4135,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
@@ -4783,23 +4144,23 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
@@ -4808,52 +4169,52 @@
     </row>
     <row r="51" spans="1:3" ht="36">
       <c r="A51" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="s">
@@ -4862,7 +4223,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
@@ -4871,16 +4232,16 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7" t="s">
@@ -4889,7 +4250,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
@@ -4898,16 +4259,16 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
@@ -4916,7 +4277,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
@@ -5138,34 +4499,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B860984-D074-477F-9C49-82D24B549A77}">
-  <dimension ref="F1:I1"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="6:9">
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Data_Relation.xlsx
+++ b/Data_Relation.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8450CFD8-A207-4113-9014-F26018FEF208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73D98CE-4A0C-4A82-9D8F-464AD8C1FEB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ポートフォリオ狙い" sheetId="6" r:id="rId1"/>
     <sheet name="要件定義" sheetId="1" r:id="rId2"/>
     <sheet name="帳票用データ" sheetId="8" r:id="rId3"/>
     <sheet name="帳票データ" sheetId="2" r:id="rId4"/>
-    <sheet name="表画像用（非表示）" sheetId="3" r:id="rId5"/>
+    <sheet name="可視化データ画像" sheetId="9" r:id="rId5"/>
+    <sheet name="表画像用（非表示）" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="155">
   <si>
     <t>Company_name</t>
     <phoneticPr fontId="1"/>
@@ -359,9 +360,6 @@
       <t>ツク</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ポートフォリオ狙いについて</t>
   </si>
   <si>
     <t>・要件定義</t>
@@ -523,80 +521,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Tweetデータが自分のPC上だとフルサイズのデータが流せない。</t>
-    <rPh sb="9" eb="11">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>そのため、2015年だけに絞り一連のデータを作成してみる。</t>
-    <rPh sb="9" eb="10">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イチレン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成し終えたら、2016年、・・・2020年データをひとつづつ作成。</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成手順</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最後にデータを縦結合を行う。</t>
-    <rPh sb="0" eb="2">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケツゴウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tweet_num</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1051,12 +975,376 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>株価とツイート情報の比較ができなかった。というのも、株価データの各企業の様子がわかったものの、ツイートデータと重ねて吟味することができなかった。</t>
+    <rPh sb="0" eb="2">
+      <t>カブカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カブカ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>カクキギョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヨウス</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ギンミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つまり、統計的な検定スキル不足であると考えられる。</t>
+    <rPh sb="4" eb="7">
+      <t>トウケイテキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし、データ定義書が作成でき、それに基づきSQL文が作成できたことがとても大きな収穫であった。</t>
+    <rPh sb="7" eb="9">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮説は、ツイート数が増加したとき、株価が上がっている、もしくは上がるというものであった。データの加工やクレンジングが行えたし、グラフ描画できたものの、2つの意味合いが異なる値同士の評価ができなかった。</t>
+    <rPh sb="0" eb="2">
+      <t>カセツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カブカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポートフォリオ狙い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postgresql 13.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメント管理ツール</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flee-style (github.com)</t>
+  </si>
+  <si>
+    <t>開発環境</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Git Bash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Anaconda 4.8.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python 3.8.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAS EG 7.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL Workbench/J </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムCLASS図</t>
+    <rPh sb="9" eb="10">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帳票用データ1より</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4つの画像データ</t>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>python DataFrameに変換し折れ線グラフを描画する。</t>
+    <rPh sb="17" eb="19">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値の日付毎の増加具合がわかる。</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>グアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイート数について、株価について表示している。</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カブカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下段の2つのグラフは、年月でまとめて表示しているため、ザクりとした増加がわかるか出力してみました。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲダン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフから分かったこと</t>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APPLEは最初はすごくツイートされていたものの、2017年4月を機に急激にツイート数が減少している。</t>
+    <rPh sb="6" eb="8">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キュウゲキ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tesla社を除く、すべての会社のツイート数は似たような現象がみられる。</t>
+    <rPh sb="5" eb="6">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tesla社は2019年2月を機にツイート数がかなり増加している。</t>
+    <rPh sb="5" eb="6">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価がどれも徐々に上がっている。</t>
+    <rPh sb="0" eb="2">
+      <t>カブカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョジョ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMAZONは急激な伸びを見せている。</t>
+    <rPh sb="7" eb="9">
+      <t>キュウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイート数のグラフと株価のグラフでは、比例関係はなさそうである。</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カブカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒレイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1077,6 +1365,22 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1105,7 +1409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1165,15 +1469,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1194,15 +1613,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1218,24 +1628,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1245,8 +1637,85 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1266,15 +1735,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>1752600</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1305,8 +1774,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="619125" y="1495425"/>
-          <a:ext cx="1752600" cy="1381125"/>
+          <a:off x="624417" y="3395133"/>
+          <a:ext cx="1752600" cy="1343024"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1327,16 +1796,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>512619</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>7792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>280555</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1390,16 +1859,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
+          <xdr:col>0</xdr:col>
           <xdr:colOff>2457450</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
+          <xdr:col>2</xdr:col>
           <xdr:colOff>131989</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>39460</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>39459</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1414,7 +1883,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$86:$B$89" spid="_x0000_s1254"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$86:$B$89" spid="_x0000_s1264"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1455,15 +1924,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:col>3</xdr:col>
           <xdr:colOff>123826</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>63953</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>506187</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>88446</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
@@ -1479,7 +1948,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$91:$B$99" spid="_x0000_s1255"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$91:$B$99" spid="_x0000_s1265"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1518,15 +1987,15 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>554179</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>76694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>2456087</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>122463</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1569,15 +2038,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>3279321</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>129268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>564696</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>74839</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1620,15 +2089,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>88448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1671,16 +2140,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2354035</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2332869</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3385086</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>5103</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3363920</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>100353</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1695,8 +2164,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2979964" y="5034643"/>
-          <a:ext cx="1031051" cy="522174"/>
+          <a:off x="2957286" y="5976560"/>
+          <a:ext cx="1031051" cy="516126"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -1739,16 +2208,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>451757</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>84365</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>674007</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161382</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>7825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>256633</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>92491</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1763,8 +2232,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4520293" y="5037365"/>
-          <a:ext cx="961482" cy="522174"/>
+          <a:off x="7373257" y="5820834"/>
+          <a:ext cx="958459" cy="515824"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -1791,7 +2260,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
@@ -1812,16 +2281,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>122463</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10582</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>90712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>255443</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>81256</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>350694</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>49505</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1836,8 +2305,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4544785" y="6422570"/>
-          <a:ext cx="1031051" cy="407829"/>
+          <a:off x="7397749" y="7223879"/>
+          <a:ext cx="1028028" cy="403293"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -1889,16 +2358,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2869561</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2846917</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1911,13 +2380,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="10" idx="2"/>
-          <a:endCxn id="35" idx="1"/>
+          <a:endCxn id="2" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1502229" y="2736396"/>
-          <a:ext cx="1993261" cy="2298247"/>
+          <a:off x="1500717" y="2716741"/>
+          <a:ext cx="1970617" cy="1252008"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1945,16 +2414,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2869561</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2846917</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>39460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3328987</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3332011</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1967,13 +2436,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="12" idx="2"/>
-          <a:endCxn id="35" idx="1"/>
+          <a:endCxn id="2" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3495490" y="1998889"/>
-          <a:ext cx="459426" cy="3035754"/>
+          <a:off x="3471334" y="1986793"/>
+          <a:ext cx="485094" cy="1981956"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2001,15 +2470,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>3306535</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2052,16 +2521,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3385086</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>43373</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3363920</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>130437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>451757</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>46095</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>577391</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>138623</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2074,13 +2543,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="35" idx="4"/>
-          <a:endCxn id="36" idx="2"/>
+          <a:endCxn id="25" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4011015" y="5295730"/>
-          <a:ext cx="509278" cy="2722"/>
+        <a:xfrm flipV="1">
+          <a:off x="3988337" y="6226437"/>
+          <a:ext cx="663637" cy="8186"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2108,16 +2577,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>468085</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>141515</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>679751</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>46265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>177710</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>64974</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>262377</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>117891</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2132,8 +2601,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4536621" y="5693229"/>
-          <a:ext cx="961482" cy="522174"/>
+          <a:off x="7379001" y="6438598"/>
+          <a:ext cx="958459" cy="516126"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -2181,16 +2650,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3385086</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>43373</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>130437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>468085</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>103245</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>679751</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>7994</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2202,14 +2671,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="4"/>
+          <a:stCxn id="25" idx="3"/>
           <a:endCxn id="16" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4011015" y="5295730"/>
-          <a:ext cx="525606" cy="658586"/>
+          <a:off x="6117633" y="6226437"/>
+          <a:ext cx="1261368" cy="470224"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2237,16 +2706,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3385086</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>43373</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3363920</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>138623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>27021</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>602997</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28839</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2259,13 +2728,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="35" idx="4"/>
-          <a:endCxn id="37" idx="1"/>
+          <a:endCxn id="27" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4011015" y="5295730"/>
-          <a:ext cx="533770" cy="1330755"/>
+          <a:off x="3988337" y="6234623"/>
+          <a:ext cx="689243" cy="631049"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2293,16 +2762,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2869561</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2846917</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>88446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>315007</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2315,13 +2784,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="14" idx="2"/>
-          <a:endCxn id="35" idx="1"/>
+          <a:endCxn id="2" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3495490" y="3544660"/>
-          <a:ext cx="2820267" cy="1489983"/>
+          <a:off x="3471334" y="3517446"/>
+          <a:ext cx="2855006" cy="451303"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2349,16 +2818,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2869561</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12556</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2846917</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>512619</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2371,13 +2840,712 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="11" idx="1"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3471334" y="1663555"/>
+          <a:ext cx="1740285" cy="2305194"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2482586</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="728661" cy="349776"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8BE5CE-7D84-414A-99FC-12E25636E6EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3107003" y="3968749"/>
+          <a:ext cx="728661" cy="349776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>SAS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>EG</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2118324</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>78316</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1465659" cy="349776"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF180D1-9AC6-4866-845F-063F250AD4DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2742741" y="5285316"/>
+          <a:ext cx="1465659" cy="349776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Workbench/J</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>577391</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>103716</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1465659" cy="349776"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B97552-3EC5-4004-8C2E-D8CC3EBFCDB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4651974" y="6051549"/>
+          <a:ext cx="1465659" cy="349776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Workbench/J</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>602997</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>2117</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="766749" cy="349776"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A8CB2FB-1944-4339-A1A0-DD249198AF96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4677580" y="6690784"/>
+          <a:ext cx="766749" cy="349776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Python3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2846917</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2852591</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114903</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FDCB181-3F8E-44F0-ACF8-6FE233F4F997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="38" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3471334" y="4318525"/>
+          <a:ext cx="5674" cy="262545"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2227035</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27981</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>78232</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="フローチャート: 書類 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310D65DF-CB63-448B-836C-1B931E1FE8ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2851452" y="4581070"/>
+          <a:ext cx="1251112" cy="407829"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>データ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2851154</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>51270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2852591</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>78316</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7831782-07E8-4CEC-892C-0E8D40C82918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="2"/>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3475571" y="4961937"/>
+          <a:ext cx="1437" cy="323379"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2848395</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>131759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2851154</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28727</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92ED17F6-82FF-448C-A035-AE7EE1D382C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="2"/>
           <a:endCxn id="35" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3495490" y="1672627"/>
-          <a:ext cx="1711593" cy="3362016"/>
+          <a:off x="3472812" y="5635092"/>
+          <a:ext cx="2759" cy="341468"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>130913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>674007</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>130437</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903665F9-CCD8-4E94-A77E-842E4B376EF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="3"/>
+          <a:endCxn id="36" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6117633" y="6078746"/>
+          <a:ext cx="1255624" cy="147691"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120912</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10582</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>144193</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37268CE4-A08C-4A13-AD5C-84A1989CCBE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="37" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5444329" y="6865672"/>
+          <a:ext cx="1953420" cy="559854"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2412,14 +3580,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
+          <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>238124</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>4695546</xdr:colOff>
+          <xdr:colOff>466446</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
@@ -2436,7 +3604,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$1:$C$15" spid="_x0000_s7272"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$1:$C$15" spid="_x0000_s7282"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2475,14 +3643,14 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4248150</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -2526,13 +3694,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
@@ -2549,7 +3717,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$17:$C$30" spid="_x0000_s7273"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$17:$C$30" spid="_x0000_s7283"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2563,7 +3731,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="7058025" y="942975"/>
+              <a:off x="6686550" y="942975"/>
               <a:ext cx="6048375" cy="2590800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2595,13 +3763,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
+          <xdr:col>0</xdr:col>
           <xdr:colOff>-1</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
+          <xdr:col>1</xdr:col>
           <xdr:colOff>4974094</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>202406</xdr:rowOff>
@@ -2619,7 +3787,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$32:$C$46" spid="_x0000_s8217"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$32:$C$46" spid="_x0000_s8227"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2660,14 +3828,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
+          <xdr:col>1</xdr:col>
           <xdr:colOff>5393530</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>11905</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1099000</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1098999</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>71437</xdr:rowOff>
         </xdr:to>
@@ -2684,7 +3852,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$48:$C$63" spid="_x0000_s8218"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$48:$C$63" spid="_x0000_s8228"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2721,6 +3889,211 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7400F12B-EBD4-4560-84C0-FFC589A8A9F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="476251"/>
+          <a:ext cx="5676899" cy="3338154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>176250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>234108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD863B58-CD29-4AD1-B6D1-1CDB5F278A68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="476250"/>
+          <a:ext cx="5662650" cy="3329734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>230086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FFBD971-88F0-4C5A-91CE-0E88EDE80BB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4286250"/>
+          <a:ext cx="5653086" cy="3325711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>378674</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>116998</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958F2533-B35C-4CE1-A538-091F2CB0B352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="4286250"/>
+          <a:ext cx="5865074" cy="3450749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3016,6 +4389,45 @@
         </a:fontRef>
       </a:style>
     </a:spDef>
+    <a:txDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr kumimoji="1" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:defRPr>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </a:style>
+    </a:txDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
@@ -3028,133 +4440,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C04812-BB9B-4380-A81A-2D4D724EA9B8}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="72.75" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="72.75" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="36">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="13" t="s">
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="17" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="18" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="18" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="19" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:1" ht="24">
+      <c r="A20" s="23" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="18"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="18"/>
+      <c r="A21" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="24">
+      <c r="A22" s="24" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="18"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="18"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="19"/>
+      <c r="A23" s="14" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3165,58 +4579,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="45.25" style="22" customWidth="1"/>
-    <col min="3" max="4" width="8.125" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="45.25" style="25" customWidth="1"/>
+    <col min="2" max="3" width="8.125" style="25" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="37">
+        <v>44262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="72">
-      <c r="B2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="11"/>
-      <c r="B4" s="24" t="s">
-        <v>77</v>
-      </c>
+    <row r="3" spans="1:11" ht="72">
+      <c r="A3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -3226,13 +4628,12 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="11"/>
-      <c r="B5" s="25" t="s">
-        <v>74</v>
-      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -3242,13 +4643,12 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="11"/>
-      <c r="B6" s="26" t="s">
-        <v>75</v>
-      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -3258,13 +4658,12 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="11"/>
-      <c r="B7" s="26" t="s">
-        <v>76</v>
-      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -3274,13 +4673,12 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="11"/>
-      <c r="B8" s="27" t="s">
-        <v>78</v>
-      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.75">
+      <c r="A8" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -3290,10 +4688,9 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="11"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -3304,10 +4701,11 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="11"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="36" t="s">
+        <v>135</v>
+      </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -3318,10 +4716,11 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="11"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="27" t="s">
+        <v>139</v>
+      </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -3332,10 +4731,11 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="11"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="27" t="s">
+        <v>140</v>
+      </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -3346,10 +4746,11 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="11"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="27" t="s">
+        <v>131</v>
+      </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -3360,9 +4761,13 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -3371,9 +4776,13 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -3382,9 +4791,11 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -3393,9 +4804,11 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="4:12">
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -3404,259 +4817,427 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="4:12">
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="4:12">
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="29"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="4:12">
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="29"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="4:12">
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="29"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="4:12">
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="29"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="4:12">
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="29"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="4:12">
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="29"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="4:12">
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="29"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-    </row>
-    <row r="26" spans="4:12">
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="29"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-    </row>
-    <row r="27" spans="4:12">
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="29"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="H27" s="30"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-    </row>
-    <row r="28" spans="4:12">
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="29"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="H28" s="30"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-    </row>
-    <row r="29" spans="4:12">
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="29"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="H29" s="30"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-    </row>
-    <row r="30" spans="4:12">
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="29"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="H30" s="30"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-    </row>
-    <row r="31" spans="4:12">
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="29"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="30"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-    </row>
-    <row r="32" spans="4:12">
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="29"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-    </row>
-    <row r="33" spans="1:12">
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="29"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="H33" s="30"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="11"/>
-      <c r="B34" s="10"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="29"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="11"/>
-      <c r="B35" s="10"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="29"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="29"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="29"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="29"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="31"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="31"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="29"/>
+      <c r="H41" s="32"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="29"/>
+      <c r="H42" s="32"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="29"/>
+      <c r="H43" s="32"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="29"/>
+      <c r="H44" s="32"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="29"/>
+      <c r="H45" s="32"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="29"/>
+      <c r="H46" s="32"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="29"/>
+      <c r="H47" s="32"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="29"/>
+      <c r="H48" s="32"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="29"/>
+      <c r="H49" s="32"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="29"/>
+      <c r="H50" s="32"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="29"/>
+      <c r="H51" s="32"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="29"/>
+      <c r="H52" s="32"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="29"/>
+      <c r="H53" s="32"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="29"/>
+      <c r="H54" s="32"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="29"/>
+      <c r="H55" s="32"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="29"/>
+      <c r="H56" s="32"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="29"/>
+      <c r="H57" s="32"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="29"/>
+      <c r="H58" s="32"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="29"/>
+      <c r="H59" s="32"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="29"/>
+      <c r="H60" s="32"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="33"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" display="https://github.com/flee-style/" xr:uid="{C41C61BC-27EF-4DAB-9121-5F7002F7EC73}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C8C1E7-7372-4E6B-B694-89E4A957C6F0}">
-  <dimension ref="B1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="30"/>
-    <col min="2" max="2" width="14.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.25" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="14.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>126</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3669,41 +5250,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB773BC5-0C61-4A89-B7BE-C0371CAE8D02}">
-  <dimension ref="B1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A5:XFD9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="142" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="142" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>128</v>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3715,782 +5296,1641 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19427988-BE3F-4F8B-927F-9BE9574362D1}">
+  <dimension ref="A1:R47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="60"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="51"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="51"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="51"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="51"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="51"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="51"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="51"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="51"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="51"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="51"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="51"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="49"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="51"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="49"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="51"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="51"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="54"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="60"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="51"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="51"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="49"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="51"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="49"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="51"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="49"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="51"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="51"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="49"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="51"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="49"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="51"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="49"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="51"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="51"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="49"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="51"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="49"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="51"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="49"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="51"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="51"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="52"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="54"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B1B99B-D74C-475F-B5FB-9BA3F7331F1E}">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="36">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="36">
+      <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="36">
+      <c r="A51" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="44"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="24">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24">
-      <c r="A4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="36">
-      <c r="A15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="36">
-      <c r="A30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="36">
-      <c r="A51" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="8"/>
+      <c r="B81" s="45"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="8"/>
+      <c r="B86" s="45"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="43" t="s">
         <v>35</v>
       </c>
+      <c r="B91" s="44"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="8" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Data_Relation.xlsx
+++ b/Data_Relation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73D98CE-4A0C-4A82-9D8F-464AD8C1FEB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922E8667-1192-4622-A541-2CC9C75BF292}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ポートフォリオ狙い" sheetId="6" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="帳票用データ" sheetId="8" r:id="rId3"/>
     <sheet name="帳票データ" sheetId="2" r:id="rId4"/>
     <sheet name="可視化データ画像" sheetId="9" r:id="rId5"/>
-    <sheet name="表画像用（非表示）" sheetId="3" r:id="rId6"/>
+    <sheet name="表画像用（非表示）" sheetId="3" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1883,7 +1883,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$86:$B$89" spid="_x0000_s1264"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$86:$B$89" spid="_x0000_s1266"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1948,7 +1948,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$91:$B$99" spid="_x0000_s1265"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$91:$B$99" spid="_x0000_s1267"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3604,7 +3604,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$1:$C$15" spid="_x0000_s7282"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$1:$C$15" spid="_x0000_s7284"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3717,7 +3717,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$17:$C$30" spid="_x0000_s7283"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$17:$C$30" spid="_x0000_s7285"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3787,7 +3787,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$32:$C$46" spid="_x0000_s8227"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$32:$C$46" spid="_x0000_s8229"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3852,7 +3852,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$48:$C$63" spid="_x0000_s8228"/>
+                  <a14:cameraTool cellRange="'表画像用（非表示）'!$A$48:$C$63" spid="_x0000_s8230"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4581,8 +4581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="A18:H18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5299,7 +5299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19427988-BE3F-4F8B-927F-9BE9574362D1}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J5"/>
     </sheetView>
   </sheetViews>
